--- a/fractals_3d/data/data_3.xlsx
+++ b/fractals_3d/data/data_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Сomputer graphics\fractals\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Сomputer graphics\fractals_3d\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>X</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -888,15 +891,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,8 +933,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -964,6 +970,9 @@
       </c>
       <c r="K2">
         <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/fractals_3d/data/data_3.xlsx
+++ b/fractals_3d/data/data_3.xlsx
@@ -57,9 +57,6 @@
     <t>white</t>
   </si>
   <si>
-    <t>"F":"F[-F]F[+F][F]"</t>
-  </si>
-  <si>
     <t>#FFCC00</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>F: F[-F]F[+F][F]</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -948,10 +948,10 @@
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <v>2</v>

--- a/fractals_3d/data/data_3.xlsx
+++ b/fractals_3d/data/data_3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>X</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>F: F[-F]F[+F][F]</t>
+  </si>
+  <si>
+    <t>Constants</t>
   </si>
 </sst>
 </file>
@@ -891,15 +894,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,8 +939,11 @@
       <c r="L1" t="s">
         <v>14</v>
       </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
